--- a/working/zenkoku-04.xlsx
+++ b/working/zenkoku-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600" firstSheet="1" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="トレンド" sheetId="6" r:id="rId1"/>
@@ -932,27 +932,7 @@
   <cellStyles count="1">
     <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="34">
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
+  <dxfs count="33">
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -1081,6 +1061,16 @@
         </patternFill>
       </fill>
     </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
@@ -1134,7 +1124,6 @@
           </a:p>
         </c:rich>
       </c:tx>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10353,11 +10342,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="425086080"/>
-        <c:axId val="425083728"/>
+        <c:axId val="429307472"/>
+        <c:axId val="429960896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="425086080"/>
+        <c:axId val="429307472"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10400,7 +10389,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425083728"/>
+        <c:crossAx val="429960896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -10408,7 +10397,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="425083728"/>
+        <c:axId val="429960896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="95"/>
@@ -10461,7 +10450,7 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="425086080"/>
+        <c:crossAx val="429307472"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -10475,7 +10464,6 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11132,48 +11120,48 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A6:AE54" totalsRowShown="0" headerRowDxfId="32">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="テーブル2" displayName="テーブル2" ref="A6:AE54" totalsRowShown="0" headerRowDxfId="30">
   <autoFilter ref="A6:AE54"/>
   <tableColumns count="31">
     <tableColumn id="1" name="通し番号"/>
     <tableColumn id="2" name="都道府県"/>
-    <tableColumn id="3" name="1947" dataDxfId="31"/>
-    <tableColumn id="4" name="1950" dataDxfId="30"/>
-    <tableColumn id="5" name="1953" dataDxfId="29"/>
-    <tableColumn id="6" name="1956" dataDxfId="28"/>
-    <tableColumn id="7" name="1959" dataDxfId="27"/>
-    <tableColumn id="8" name="1962" dataDxfId="26"/>
-    <tableColumn id="9" name="1965" dataDxfId="25"/>
-    <tableColumn id="10" name="1968" dataDxfId="24"/>
-    <tableColumn id="11" name="1971" dataDxfId="23"/>
-    <tableColumn id="12" name="1974" dataDxfId="22"/>
-    <tableColumn id="13" name="1977" dataDxfId="21"/>
-    <tableColumn id="14" name="1980" dataDxfId="20"/>
-    <tableColumn id="15" name="1983" dataDxfId="19"/>
-    <tableColumn id="16" name="1986" dataDxfId="18"/>
-    <tableColumn id="17" name="1989" dataDxfId="17"/>
-    <tableColumn id="18" name="1992" dataDxfId="16"/>
-    <tableColumn id="19" name="1995" dataDxfId="15"/>
-    <tableColumn id="20" name="1998" dataDxfId="14"/>
-    <tableColumn id="21" name="2001" dataDxfId="13"/>
-    <tableColumn id="22" name="2004" dataDxfId="12"/>
-    <tableColumn id="23" name="2007" dataDxfId="11"/>
-    <tableColumn id="24" name="2010" dataDxfId="10"/>
-    <tableColumn id="25" name="2013" dataDxfId="9"/>
-    <tableColumn id="26" name="2016" dataDxfId="8"/>
-    <tableColumn id="27" name="県議選TRUE" dataDxfId="7">
+    <tableColumn id="3" name="1947" dataDxfId="29"/>
+    <tableColumn id="4" name="1950" dataDxfId="28"/>
+    <tableColumn id="5" name="1953" dataDxfId="27"/>
+    <tableColumn id="6" name="1956" dataDxfId="26"/>
+    <tableColumn id="7" name="1959" dataDxfId="25"/>
+    <tableColumn id="8" name="1962" dataDxfId="24"/>
+    <tableColumn id="9" name="1965" dataDxfId="23"/>
+    <tableColumn id="10" name="1968" dataDxfId="22"/>
+    <tableColumn id="11" name="1971" dataDxfId="21"/>
+    <tableColumn id="12" name="1974" dataDxfId="20"/>
+    <tableColumn id="13" name="1977" dataDxfId="19"/>
+    <tableColumn id="14" name="1980" dataDxfId="18"/>
+    <tableColumn id="15" name="1983" dataDxfId="17"/>
+    <tableColumn id="16" name="1986" dataDxfId="16"/>
+    <tableColumn id="17" name="1989" dataDxfId="15"/>
+    <tableColumn id="18" name="1992" dataDxfId="14"/>
+    <tableColumn id="19" name="1995" dataDxfId="13"/>
+    <tableColumn id="20" name="1998" dataDxfId="12"/>
+    <tableColumn id="21" name="2001" dataDxfId="11"/>
+    <tableColumn id="22" name="2004" dataDxfId="10"/>
+    <tableColumn id="23" name="2007" dataDxfId="9"/>
+    <tableColumn id="24" name="2010" dataDxfId="8"/>
+    <tableColumn id="25" name="2013" dataDxfId="7"/>
+    <tableColumn id="26" name="2016" dataDxfId="6"/>
+    <tableColumn id="27" name="県議選TRUE" dataDxfId="5">
       <calculatedColumnFormula>VLOOKUP(テーブル2[[#This Row],[都道府県]],選挙疲れ, 2, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="28" name="知事選TRUE" dataDxfId="6">
+    <tableColumn id="28" name="知事選TRUE" dataDxfId="4">
       <calculatedColumnFormula>VLOOKUP(テーブル2[[#This Row],[都道府県]],選挙疲れ, 5, FALSE)</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="31" name="県議選のみ" dataDxfId="5">
+    <tableColumn id="31" name="県議選のみ" dataDxfId="3">
       <calculatedColumnFormula>AND(テーブル2[[#This Row],[県議選TRUE]], NOT(テーブル2[[#This Row],[知事選TRUE]]))</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="30" name="知事選のみ" dataDxfId="4">
+    <tableColumn id="30" name="知事選のみ" dataDxfId="2">
       <calculatedColumnFormula>AND(NOT(テーブル2[[#This Row],[県議選TRUE]]),テーブル2[[#This Row],[知事選TRUE]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="29" name="両方あった" dataDxfId="3">
+    <tableColumn id="29" name="両方あった" dataDxfId="1">
       <calculatedColumnFormula>AND(テーブル2[[#This Row],[県議選TRUE]],テーブル2[[#This Row],[知事選TRUE]])</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -17014,12 +17002,12 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="AC6:AE54">
-    <cfRule type="cellIs" dxfId="33" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="32" priority="2" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="AG6:AI6">
-    <cfRule type="cellIs" dxfId="1" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="31" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>
@@ -17038,7 +17026,9 @@
   </sheetPr>
   <dimension ref="A1:K50"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I2" sqref="I2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
   <cols>
@@ -18156,7 +18146,7 @@
   </sheetData>
   <phoneticPr fontId="1"/>
   <conditionalFormatting sqref="F1:F1048576">
-    <cfRule type="cellIs" dxfId="2" priority="1" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="1" operator="equal">
       <formula>TRUE</formula>
     </cfRule>
   </conditionalFormatting>

--- a/working/zenkoku-04.xlsx
+++ b/working/zenkoku-04.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600" firstSheet="1" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12600"/>
   </bookViews>
   <sheets>
     <sheet name="トレンド" sheetId="6" r:id="rId1"/>
@@ -1124,6 +1124,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -10342,11 +10343,11 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:smooth val="0"/>
-        <c:axId val="429307472"/>
-        <c:axId val="429960896"/>
+        <c:axId val="451520896"/>
+        <c:axId val="451524424"/>
       </c:lineChart>
-      <c:catAx>
-        <c:axId val="429307472"/>
+      <c:dateAx>
+        <c:axId val="451520896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -10389,15 +10390,14 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429960896"/>
+        <c:crossAx val="451524424"/>
         <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
+        <c:auto val="0"/>
         <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
+        <c:baseTimeUnit val="days"/>
+      </c:dateAx>
       <c:valAx>
-        <c:axId val="429960896"/>
+        <c:axId val="451524424"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="95"/>
@@ -10450,9 +10450,9 @@
             <a:endParaRPr lang="ja-JP"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="429307472"/>
+        <c:crossAx val="451520896"/>
         <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
+        <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:spPr>
         <a:noFill/>
@@ -10464,6 +10464,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -11085,7 +11086,7 @@
 <chartsheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <sheetPr/>
   <sheetViews>
-    <sheetView zoomScale="84" workbookViewId="0" zoomToFit="1"/>
+    <sheetView tabSelected="1" zoomScale="77" workbookViewId="0" zoomToFit="1"/>
   </sheetViews>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
@@ -11096,7 +11097,7 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:absoluteAnchor>
     <xdr:pos x="0" y="0"/>
-    <xdr:ext cx="9298214" cy="6055179"/>
+    <xdr:ext cx="9289968" cy="6048994"/>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
         <xdr:cNvPr id="2" name="グラフ 1"/>
@@ -11437,7 +11438,7 @@
   </sheetPr>
   <dimension ref="A1:AI54"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="6" topLeftCell="C7" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A7" sqref="A7"/>
